--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/10 DEPRECIACION.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/6 AUDITORIA ACTIVOS FIJOS/10 DEPRECIACION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\TAREA 1 ACTUALIZAR PT\1 PAPELES DE TRABAJO AUDITORIA\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\6 AUDITORIA ACTIVOS FIJOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90051DEE-936A-4056-8732-9F04A1275D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -23,12 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -91,9 +86,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                   EMPRESA, YYY, S. A.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEPRECIACION ACUMULADA </t>
   </si>
   <si>
@@ -109,9 +101,6 @@
     <t>Auditoría de Estados Financieros</t>
   </si>
   <si>
-    <t xml:space="preserve">        DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hecho </t>
   </si>
   <si>
@@ -124,18 +113,24 @@
     <t xml:space="preserve">                                              Supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">             PRUEBA DE DEPRECIACIONES</t>
-  </si>
-  <si>
     <t>F-9</t>
+  </si>
+  <si>
+    <t>PRUEBA DE DEPRECIACIONES</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -163,13 +158,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF006EC0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -238,6 +226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -323,25 +317,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -349,33 +338,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,14 +943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,117 +976,128 @@
   <sheetData>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="D5" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="C6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="C8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="H8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="23"/>
+      <c r="D13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1093,9 +1105,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,9 +1115,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,9 +1125,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,9 +1135,9 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,9 +1145,9 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,9 +1155,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,9 +1165,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,30 +1175,30 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1199,65 +1211,69 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="16"/>
-      <c r="F40" s="10" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="13"/>
+      <c r="F40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>25</v>
+      <c r="B41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A11:H14">
+  <autoFilter ref="A11:H14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
